--- a/GSI_simobs_corr/wl_results.xlsx
+++ b/GSI_simobs_corr/wl_results.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Mac_xSSD/MWP-IHM/GSI_simobs_corr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A5C573AA-2BFD-524D-8A25-680A8663F42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{07B20B81-36FF-104C-AD29-FA5774509181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43440" yWindow="500" windowWidth="30560" windowHeight="31900" xr2:uid="{42C826BD-A07C-3D4B-8A80-0B7285E95043}"/>
   </bookViews>
   <sheets>
     <sheet name="wl_results" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="InterceptAllowable">wl_results!$O$8</definedName>
+    <definedName name="InterceptTol">wl_results!$O$7</definedName>
+    <definedName name="SlopeAllowable">wl_results!$N$8</definedName>
+    <definedName name="SlopeTol">wl_results!$N$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="210" uniqueCount="96">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="214" uniqueCount="100">
   <si>
     <t>PointID</t>
   </si>
@@ -308,15 +314,9 @@
     <t>Red</t>
   </si>
   <si>
-    <t>QC is worser than GSI</t>
-  </si>
-  <si>
     <t>Yellow</t>
   </si>
   <si>
-    <t>QC is better than GSI</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
@@ -324,13 +324,31 @@
   </si>
   <si>
     <t>Difference is acceptable</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>QC is better than GSI (GSI-QC is more than tolerant criteria)</t>
+  </si>
+  <si>
+    <t>QC is worser than GSI (QC-GSI is more than tolerant criteria)</t>
+  </si>
+  <si>
+    <t>Allowable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -472,8 +490,22 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA83217"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,6 +685,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE832"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -814,9 +864,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -864,97 +927,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1007,31 +980,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1047,136 +1000,23 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA83217"/>
+      <color rgb="FFECE832"/>
+      <color rgb="FFFFFC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1505,13 +1345,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8278637C-D4E0-0443-99E5-70AF1EEAABE6}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1529,7 +1369,7 @@
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1398,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>85</v>
@@ -1567,7 +1407,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>289</v>
       </c>
@@ -1601,14 +1441,14 @@
       <c r="K2" t="s">
         <v>86</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>89</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>290</v>
       </c>
@@ -1642,14 +1482,14 @@
       <c r="K3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" t="s">
-        <v>91</v>
+      <c r="M3" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>288</v>
       </c>
@@ -1683,14 +1523,14 @@
       <c r="K4" t="s">
         <v>86</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" t="s">
         <v>93</v>
       </c>
-      <c r="N4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>314</v>
       </c>
@@ -1725,7 +1565,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>316</v>
       </c>
@@ -1759,8 +1599,14 @@
       <c r="K6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>327</v>
       </c>
@@ -1794,8 +1640,17 @@
       <c r="K7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7">
+        <v>0.05</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>292</v>
       </c>
@@ -1829,8 +1684,17 @@
       <c r="K8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8">
+        <v>0.1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>328</v>
       </c>
@@ -1865,7 +1729,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>301</v>
       </c>
@@ -1900,7 +1764,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>335</v>
       </c>
@@ -1935,7 +1799,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>302</v>
       </c>
@@ -1970,7 +1834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>392</v>
       </c>
@@ -2005,7 +1869,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>324</v>
       </c>
@@ -2040,7 +1904,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>348</v>
       </c>
@@ -2075,7 +1939,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>326</v>
       </c>
@@ -3762,29 +3626,29 @@
     <sortCondition ref="C2:C63"/>
   </sortState>
   <conditionalFormatting sqref="G2:G63">
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>ABS(1-$E2)-ABS(1-$G2)&gt;0.02</formula>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ABS(1-$E2)-ABS(1-$G2)&gt;SlopeTol</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>ABS(1-$G2)-ABS(1-$E2)&gt;0.02</formula>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>ABS(1-$G2)-ABS(1-$E2)&gt;SlopeTol</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H63">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>ABS($F2)-ABS($H2)&gt;0.1</formula>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>ABS($F2)-ABS($H2)&gt;InterceptTol</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>ABS($H2)-ABS($F2)&gt;0.1</formula>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>ABS($H2)-ABS($F2)&gt;InterceptTol</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I63">
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>ABS($I2)&lt;=0.05</formula>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>ABS($I2)&lt;=SlopeAllowable</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J63">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>ABS($J2)&lt;=0.5</formula>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>ABS($J2)&lt;=InterceptAllowable</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
